--- a/data/jawaban_hasil_evaluasi_ahli.xlsx
+++ b/data/jawaban_hasil_evaluasi_ahli.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugm365-my.sharepoint.com/personal/syaifulbachri_365_ugm_ac_id/Documents/github/python/text_similarity/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lufias\OneDrive - UGM 365\github\python\text_similarity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{4543537A-3895-4A77-942E-7AA2F7F2C778}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{3F59DF4A-0834-4BEA-95B2-40E011FA1365}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{4543537A-3895-4A77-942E-7AA2F7F2C778}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{9A3A588F-997C-47AD-95CD-41178CE56CB7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -858,13 +858,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="99.5703125" customWidth="1"/>
+    <col min="2" max="2" width="115.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
